--- a/毕业设计相关/开题报告-图表.xlsx
+++ b/毕业设计相关/开题报告-图表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\MyProject\GraduationDesign\毕业设计相关\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +21,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,345 +31,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -378,251 +53,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -631,63 +64,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -701,9 +95,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -744,6 +144,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -755,12 +156,6 @@
             </a:rPr>
             <a:t>安全聊天工具</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:uFillTx/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -779,9 +174,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -932,12 +333,6 @@
             </a:rPr>
             <a:t>用户管理</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:uFillTx/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -956,9 +351,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1109,12 +510,6 @@
             </a:rPr>
             <a:t>通讯模块</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:uFillTx/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1133,9 +528,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1286,12 +687,6 @@
             </a:rPr>
             <a:t>好友管理</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:uFillTx/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1300,24 +695,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>615950</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
+      <xdr:colOff>681990</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5359400" y="920750"/>
+          <a:off x="5416550" y="930275"/>
           <a:ext cx="751840" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1463,12 +864,6 @@
             </a:rPr>
             <a:t>系统设置</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:uFillTx/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1477,24 +872,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>467995</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85090</xdr:rowOff>
+      <xdr:rowOff>94615</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="1438275"/>
+          <a:off x="142875" y="1447800"/>
           <a:ext cx="325120" cy="532765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1530,6 +931,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1540,11 +942,6 @@
             </a:rPr>
             <a:t>注册</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1552,25 +949,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>544195</xdr:colOff>
+      <xdr:colOff>277495</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904875" y="1447800"/>
+          <a:off x="638175" y="1466850"/>
           <a:ext cx="325120" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1715,11 +1118,6 @@
             </a:rPr>
             <a:t>登录</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1738,9 +1136,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>85090</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1890,11 +1294,6 @@
             </a:rPr>
             <a:t>发送消息</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1927,17 +1326,23 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>337820</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvPr id="11" name="矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2051050" y="1450975"/>
-          <a:ext cx="344170" cy="1543050"/>
+          <a:ext cx="344170" cy="1597025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2081,11 +1486,6 @@
             </a:rPr>
             <a:t>发送消息阅后即焚</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2104,9 +1504,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvPr id="12" name="矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2256,11 +1662,6 @@
             </a:rPr>
             <a:t>接受消息</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2279,9 +1680,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>66040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvPr id="13" name="矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2431,11 +1838,6 @@
             </a:rPr>
             <a:t>历史消息查看</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2454,9 +1856,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvPr id="14" name="矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2606,11 +2014,6 @@
             </a:rPr>
             <a:t>添加好友</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2629,9 +2032,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvPr id="15" name="矩形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2781,11 +2190,6 @@
             </a:rPr>
             <a:t>删除好友</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2804,9 +2208,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="矩形 15"/>
+        <xdr:cNvPr id="16" name="矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2956,11 +2366,6 @@
             </a:rPr>
             <a:t>修改备注</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2969,24 +2374,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>420370</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="矩形 16"/>
+        <xdr:cNvPr id="17" name="矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562600" y="1552575"/>
+          <a:off x="5619750" y="1504950"/>
           <a:ext cx="344170" cy="1560195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3131,11 +2542,6 @@
             </a:rPr>
             <a:t>阅焚消息存在时间</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3154,9 +2560,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38417</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="肘形连接符 18"/>
+        <xdr:cNvPr id="19" name="肘形连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -3196,19 +2608,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>534352</xdr:colOff>
+      <xdr:colOff>305436</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>124142</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114617</xdr:colOff>
+      <xdr:colOff>114301</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66992</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="肘形连接符 22"/>
+        <xdr:cNvPr id="23" name="肘形连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="7" idx="0"/>
@@ -3216,12 +2634,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="523875" y="1162050"/>
-          <a:ext cx="285750" cy="266065"/>
+          <a:off x="405131" y="1052830"/>
+          <a:ext cx="295275" cy="494665"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 49889"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3258,9 +2676,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>75882</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="肘形连接符 24"/>
+        <xdr:cNvPr id="25" name="肘形连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="2"/>
           <a:endCxn id="10" idx="0"/>
@@ -3300,31 +2724,37 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>165417</xdr:colOff>
+      <xdr:colOff>165735</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>361632</xdr:colOff>
+      <xdr:colOff>361633</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>79057</xdr:rowOff>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="肘形连接符 25"/>
+        <xdr:cNvPr id="26" name="肘形连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="11" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2171065" y="1202690"/>
-          <a:ext cx="298450" cy="196215"/>
+          <a:off x="2171700" y="1203642"/>
+          <a:ext cx="298768" cy="195898"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50106"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3361,9 +2791,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>75882</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="肘形连接符 26"/>
+        <xdr:cNvPr id="27" name="肘形连接符 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="2"/>
           <a:endCxn id="12" idx="0"/>
@@ -3413,9 +2849,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="肘形连接符 27"/>
+        <xdr:cNvPr id="28" name="肘形连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="2"/>
           <a:endCxn id="13" idx="0"/>
@@ -3465,9 +2907,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152082</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="肘形连接符 28"/>
+        <xdr:cNvPr id="29" name="肘形连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="2"/>
           <a:endCxn id="14" idx="0"/>
@@ -3517,9 +2965,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>143192</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="肘形连接符 29"/>
+        <xdr:cNvPr id="30" name="肘形连接符 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="2"/>
           <a:endCxn id="15" idx="0"/>
@@ -3569,9 +3023,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142557</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="肘形连接符 30"/>
+        <xdr:cNvPr id="31" name="肘形连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="2"/>
           <a:endCxn id="16" idx="0"/>
@@ -3611,19 +3071,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>248285</xdr:colOff>
+      <xdr:colOff>305435</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>248920</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>306070</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
           <a:endCxn id="17" idx="0"/>
@@ -3631,8 +3097,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5734685" y="1168400"/>
-          <a:ext cx="635" cy="384175"/>
+          <a:off x="5791835" y="1177925"/>
+          <a:ext cx="635" cy="327025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3663,30 +3129,36 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>381635</xdr:colOff>
+      <xdr:colOff>114935</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="肘形连接符 33"/>
+        <xdr:cNvPr id="34" name="肘形连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="9" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipV="1">
-          <a:off x="786130" y="1166495"/>
-          <a:ext cx="295275" cy="267335"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="643255" y="1309369"/>
+          <a:ext cx="314325" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50108"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3713,28 +3185,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514667</xdr:colOff>
+      <xdr:colOff>514032</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85407</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>249237</xdr:colOff>
+      <xdr:colOff>306069</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>63182</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="肘形连接符 34"/>
+        <xdr:cNvPr id="35" name="肘形连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="6" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipV="1">
-          <a:off x="4335780" y="-478790"/>
-          <a:ext cx="320675" cy="2477135"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4359751" y="-502444"/>
+          <a:ext cx="330200" cy="2535237"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3775,9 +3253,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="肘形连接符 35"/>
+        <xdr:cNvPr id="36" name="肘形连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="5" idx="0"/>
@@ -3827,9 +3311,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>47307</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="肘形连接符 36"/>
+        <xdr:cNvPr id="37" name="肘形连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="4" idx="0"/>
@@ -3879,9 +3369,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvPr id="8" name="圆角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3922,6 +3418,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -3932,11 +3429,6 @@
             </a:rPr>
             <a:t>服务器</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3955,9 +3447,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>170815</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvPr id="18" name="圆角矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4107,11 +3605,6 @@
             </a:rPr>
             <a:t>客户端</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4130,9 +3623,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="圆角矩形 20"/>
+        <xdr:cNvPr id="21" name="圆角矩形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4282,11 +3781,6 @@
             </a:rPr>
             <a:t>客户端</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4305,9 +3799,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvPr id="22" name="矩形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4348,6 +3848,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -4358,11 +3859,6 @@
             </a:rPr>
             <a:t>传递数据</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4381,9 +3877,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>38735</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvPr id="24" name="矩形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4533,11 +4035,6 @@
             </a:rPr>
             <a:t>保存密钥</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4556,9 +4053,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="矩形 31"/>
+        <xdr:cNvPr id="32" name="矩形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4708,11 +4211,6 @@
             </a:rPr>
             <a:t>保存历史数据</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4731,9 +4229,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>67310</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="矩形 37"/>
+        <xdr:cNvPr id="38" name="矩形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4883,11 +4387,6 @@
             </a:rPr>
             <a:t>数据解析</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4906,9 +4405,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76835</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="矩形 38"/>
+        <xdr:cNvPr id="39" name="矩形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5058,11 +4563,6 @@
             </a:rPr>
             <a:t>私钥解密</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5081,9 +4581,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvPr id="40" name="矩形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5233,11 +4739,6 @@
             </a:rPr>
             <a:t>消息显示</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5256,9 +4757,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>45085</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvPr id="41" name="矩形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5408,11 +4915,6 @@
             </a:rPr>
             <a:t>数据解析</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5431,9 +4933,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="矩形 41"/>
+        <xdr:cNvPr id="42" name="矩形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5583,11 +5091,6 @@
             </a:rPr>
             <a:t>公钥加密</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5606,9 +5109,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="矩形 42"/>
+        <xdr:cNvPr id="43" name="矩形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5758,11 +5267,6 @@
             </a:rPr>
             <a:t>消息编辑</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5781,9 +5285,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直接箭头连接符 43"/>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="41" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -5830,9 +5340,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="38" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -5879,9 +5395,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="3"/>
           <a:endCxn id="39" idx="1"/>
@@ -5929,9 +5451,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="3"/>
           <a:endCxn id="40" idx="1"/>
@@ -5979,9 +5507,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直接箭头连接符 47"/>
+        <xdr:cNvPr id="48" name="直接箭头连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="43" idx="1"/>
           <a:endCxn id="42" idx="3"/>
@@ -6029,9 +5563,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直接箭头连接符 48"/>
+        <xdr:cNvPr id="49" name="直接箭头连接符 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="42" idx="1"/>
           <a:endCxn id="41" idx="3"/>
@@ -6079,9 +5619,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="文本框 49"/>
+        <xdr:cNvPr id="50" name="文本框 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6117,13 +5663,13 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>发送消息</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6142,9 +5688,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="文本框 50"/>
+        <xdr:cNvPr id="51" name="文本框 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6285,10 +5837,551 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>接收消息</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>677545</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FC5FF7-6021-4F68-B2FD-B4CE966717BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="1438275"/>
+          <a:ext cx="325120" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信息更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514984</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="连接符: 肘形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4E4E2F-02A2-4D34-B79A-93FBB2D0BA88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="857567" y="1095057"/>
+          <a:ext cx="285750" cy="400685"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矩形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7001DA-C2B6-44BB-99A6-1129122616B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="1504950"/>
+          <a:ext cx="344170" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>清空历史消息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239395</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矩形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442AFA5A-2458-4865-808B-A52A7744BE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="1504950"/>
+          <a:ext cx="344170" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>注销登录</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>306071</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67311</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="连接符: 肘形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9846A8BB-6209-4A4D-B120-F3A876E1273F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5852478" y="1117917"/>
+          <a:ext cx="327025" cy="447040"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6580,53 +6673,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>